--- a/AAII_Financials/Quarterly/MDXL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDXL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>MDXL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,13 +985,16 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -983,20 +1002,20 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,13 +1097,14 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="E17" s="3">
         <v>700</v>
@@ -1087,22 +1113,22 @@
         <v>700</v>
       </c>
       <c r="G17" s="3">
+        <v>700</v>
+      </c>
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
@@ -1111,13 +1137,16 @@
         <v>400</v>
       </c>
       <c r="O17" s="3">
+        <v>400</v>
+      </c>
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1131,22 +1160,22 @@
         <v>-700</v>
       </c>
       <c r="G18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-400</v>
       </c>
       <c r="M18" s="3">
         <v>-400</v>
@@ -1155,13 +1184,16 @@
         <v>-400</v>
       </c>
       <c r="O18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1255,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1237,20 +1273,20 @@
         <v>-700</v>
       </c>
       <c r="G21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1266,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,13 +1349,16 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-700</v>
+        <v>-1300</v>
       </c>
       <c r="E23" s="3">
         <v>-700</v>
@@ -1325,37 +1367,40 @@
         <v>-700</v>
       </c>
       <c r="G23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-400</v>
       </c>
       <c r="N23" s="3">
         <v>-400</v>
       </c>
       <c r="O23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,13 +1490,16 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-700</v>
+        <v>-1300</v>
       </c>
       <c r="E26" s="3">
         <v>-700</v>
@@ -1457,42 +1508,45 @@
         <v>-700</v>
       </c>
       <c r="G26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-400</v>
       </c>
       <c r="N26" s="3">
         <v>-400</v>
       </c>
       <c r="O26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-700</v>
+        <v>-1300</v>
       </c>
       <c r="E27" s="3">
         <v>-700</v>
@@ -1501,37 +1555,40 @@
         <v>-700</v>
       </c>
       <c r="G27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-400</v>
       </c>
       <c r="N27" s="3">
         <v>-400</v>
       </c>
       <c r="O27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,13 +1819,16 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-700</v>
+        <v>-1300</v>
       </c>
       <c r="E33" s="3">
         <v>-700</v>
@@ -1765,37 +1837,40 @@
         <v>-700</v>
       </c>
       <c r="G33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-400</v>
       </c>
       <c r="N33" s="3">
         <v>-400</v>
       </c>
       <c r="O33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,13 +1913,16 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-700</v>
+        <v>-1300</v>
       </c>
       <c r="E35" s="3">
         <v>-700</v>
@@ -1853,86 +1931,92 @@
         <v>-700</v>
       </c>
       <c r="G35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-400</v>
       </c>
       <c r="N35" s="3">
         <v>-400</v>
       </c>
       <c r="O35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,13 +2052,14 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -1982,16 +2068,16 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
-      </c>
-      <c r="J41" s="3">
-        <v>200</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
@@ -2000,19 +2086,22 @@
         <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N41" s="3">
         <v>300</v>
       </c>
       <c r="O41" s="3">
+        <v>300</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2067,20 +2159,20 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,31 +2285,34 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
@@ -2220,19 +2321,22 @@
         <v>200</v>
       </c>
       <c r="M46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N46" s="3">
         <v>300</v>
       </c>
       <c r="O46" s="3">
+        <v>300</v>
+      </c>
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,13 +2379,16 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -2290,7 +2397,7 @@
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -2307,8 +2414,8 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2340,22 +2450,22 @@
         <v>400</v>
       </c>
       <c r="I49" s="3">
+        <v>400</v>
+      </c>
+      <c r="J49" s="3">
         <v>300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>200</v>
       </c>
       <c r="K49" s="3">
         <v>200</v>
       </c>
       <c r="L49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>100</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,37 +2661,40 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E54" s="3">
         <v>600</v>
       </c>
       <c r="F54" s="3">
+        <v>600</v>
+      </c>
+      <c r="G54" s="3">
         <v>900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>400</v>
       </c>
       <c r="K54" s="3">
         <v>400</v>
       </c>
       <c r="L54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M54" s="3">
         <v>300</v>
@@ -2578,13 +2703,16 @@
         <v>300</v>
       </c>
       <c r="O54" s="3">
+        <v>300</v>
+      </c>
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,13 +2748,14 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -2637,34 +2767,37 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>600</v>
       </c>
       <c r="L57" s="3">
         <v>600</v>
       </c>
       <c r="M57" s="3">
+        <v>600</v>
+      </c>
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2840,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2718,8 +2854,8 @@
       <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
+      <c r="F59" s="3">
+        <v>100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
@@ -2733,8 +2869,8 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2745,58 +2881,64 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
       </c>
       <c r="H60" s="3">
+        <v>200</v>
+      </c>
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>600</v>
       </c>
       <c r="M60" s="3">
+        <v>600</v>
+      </c>
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,23 +2981,26 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
       </c>
       <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2865,8 +3010,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,13 +3169,16 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
@@ -3030,37 +3187,40 @@
         <v>400</v>
       </c>
       <c r="G66" s="3">
+        <v>400</v>
+      </c>
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>600</v>
       </c>
       <c r="L66" s="3">
         <v>600</v>
       </c>
       <c r="M66" s="3">
+        <v>600</v>
+      </c>
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>400</v>
+      </c>
+      <c r="E76" s="3">
         <v>200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>300</v>
-      </c>
-      <c r="F76" s="3">
-        <v>500</v>
       </c>
       <c r="G76" s="3">
         <v>500</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-200</v>
       </c>
       <c r="L76" s="3">
         <v>-200</v>
       </c>
       <c r="M76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N76" s="3">
         <v>-500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,62 +3705,68 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-700</v>
+        <v>-1300</v>
       </c>
       <c r="E81" s="3">
         <v>-700</v>
@@ -3581,37 +3775,40 @@
         <v>-700</v>
       </c>
       <c r="G81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-400</v>
       </c>
       <c r="N81" s="3">
         <v>-400</v>
       </c>
       <c r="O81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3654,8 +3852,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,43 +4117,46 @@
         <v>-600</v>
       </c>
       <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-700</v>
       </c>
       <c r="G89" s="3">
         <v>-700</v>
       </c>
       <c r="H89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-500</v>
       </c>
       <c r="N89" s="3">
         <v>-500</v>
       </c>
       <c r="O89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3983,8 +4203,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -3995,11 +4215,14 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4104,34 +4333,37 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDXL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDXL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>MDXL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,40 +1022,46 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,25 +1150,27 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F17" s="3">
         <v>1300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>700</v>
       </c>
       <c r="G17" s="3">
         <v>700</v>
       </c>
       <c r="H17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I17" s="3">
         <v>700</v>
@@ -1125,28 +1179,34 @@
         <v>600</v>
       </c>
       <c r="K17" s="3">
+        <v>700</v>
+      </c>
+      <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>400</v>
       </c>
       <c r="O17" s="3">
         <v>400</v>
       </c>
       <c r="P17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>400</v>
+      </c>
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,16 +1214,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-700</v>
+        <v>-1900</v>
       </c>
       <c r="F18" s="3">
-        <v>-700</v>
+        <v>-1300</v>
       </c>
       <c r="G18" s="3">
         <v>-700</v>
       </c>
       <c r="H18" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I18" s="3">
         <v>-700</v>
@@ -1172,28 +1232,34 @@
         <v>-600</v>
       </c>
       <c r="K18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-400</v>
       </c>
       <c r="O18" s="3">
         <v>-400</v>
       </c>
       <c r="P18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,16 +1341,16 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-700</v>
+        <v>-1900</v>
       </c>
       <c r="F21" s="3">
-        <v>-700</v>
+        <v>-1300</v>
       </c>
       <c r="G21" s="3">
         <v>-700</v>
       </c>
       <c r="H21" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I21" s="3">
         <v>-700</v>
@@ -1285,14 +1359,14 @@
         <v>-600</v>
       </c>
       <c r="K21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1305,8 +1379,14 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,25 +1432,31 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-700</v>
       </c>
       <c r="G23" s="3">
         <v>-700</v>
       </c>
       <c r="H23" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I23" s="3">
         <v>-700</v>
@@ -1379,28 +1465,34 @@
         <v>-600</v>
       </c>
       <c r="K23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,25 +1591,31 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-700</v>
       </c>
       <c r="G26" s="3">
         <v>-700</v>
       </c>
       <c r="H26" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I26" s="3">
         <v>-700</v>
@@ -1520,45 +1624,51 @@
         <v>-600</v>
       </c>
       <c r="K26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-700</v>
       </c>
       <c r="G27" s="3">
         <v>-700</v>
       </c>
       <c r="H27" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I27" s="3">
         <v>-700</v>
@@ -1567,28 +1677,34 @@
         <v>-600</v>
       </c>
       <c r="K27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1822,25 +1962,31 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-700</v>
       </c>
       <c r="G33" s="3">
         <v>-700</v>
       </c>
       <c r="H33" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I33" s="3">
         <v>-700</v>
@@ -1849,28 +1995,34 @@
         <v>-600</v>
       </c>
       <c r="K33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,25 +2068,31 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-700</v>
       </c>
       <c r="G35" s="3">
         <v>-700</v>
       </c>
       <c r="H35" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I35" s="3">
         <v>-700</v>
@@ -1943,80 +2101,92 @@
         <v>-600</v>
       </c>
       <c r="K35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
-      </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
-      </c>
-      <c r="K41" s="3">
-        <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>200</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
       </c>
       <c r="N41" s="3">
+        <v>200</v>
+      </c>
+      <c r="O41" s="3">
+        <v>200</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,38 +2327,44 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2288,55 +2486,67 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
-      </c>
-      <c r="H46" s="3">
-        <v>400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>400</v>
       </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2391,19 +2607,19 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2417,11 +2633,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -2429,8 +2645,14 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2453,31 +2675,37 @@
         <v>400</v>
       </c>
       <c r="J49" s="3">
+        <v>400</v>
+      </c>
+      <c r="K49" s="3">
+        <v>400</v>
+      </c>
+      <c r="L49" s="3">
         <v>300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,28 +2910,34 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="E54" s="3">
         <v>600</v>
       </c>
       <c r="F54" s="3">
+        <v>900</v>
+      </c>
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
+        <v>600</v>
+      </c>
+      <c r="I54" s="3">
         <v>900</v>
-      </c>
-      <c r="H54" s="3">
-        <v>700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>400</v>
       </c>
       <c r="J54" s="3">
         <v>700</v>
@@ -2694,25 +2946,31 @@
         <v>400</v>
       </c>
       <c r="L54" s="3">
+        <v>700</v>
+      </c>
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
-        <v>300</v>
-      </c>
       <c r="N54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O54" s="3">
         <v>300</v>
       </c>
       <c r="P54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>300</v>
+      </c>
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,19 +3009,21 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
-        <v>200</v>
-      </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -2770,34 +3032,40 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>500</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
+        <v>500</v>
+      </c>
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,8 +3111,14 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2857,11 +3131,11 @@
       <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
+      <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
@@ -2872,11 +3146,11 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -2884,66 +3158,78 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>500</v>
+      </c>
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>500</v>
       </c>
       <c r="L60" s="3">
+        <v>300</v>
+      </c>
+      <c r="M60" s="3">
+        <v>500</v>
+      </c>
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2984,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2993,31 +3285,31 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>600</v>
+      </c>
+      <c r="E66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
-        <v>400</v>
-      </c>
       <c r="F66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
       </c>
       <c r="H66" s="3">
+        <v>400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>400</v>
+      </c>
+      <c r="J66" s="3">
         <v>200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>500</v>
       </c>
       <c r="L66" s="3">
+        <v>300</v>
+      </c>
+      <c r="M66" s="3">
+        <v>500</v>
+      </c>
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-13600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-12400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-11600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-11000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-10200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-9700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-9000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-7300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-6500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-6100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>100</v>
+      </c>
+      <c r="F76" s="3">
         <v>400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>500</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,77 +4086,89 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-700</v>
       </c>
       <c r="G81" s="3">
         <v>-700</v>
       </c>
       <c r="H81" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I81" s="3">
         <v>-700</v>
@@ -3787,28 +4177,34 @@
         <v>-600</v>
       </c>
       <c r="K81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3855,11 +4253,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,37 +4536,43 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-700</v>
       </c>
       <c r="K89" s="3">
-        <v>-600</v>
+        <v>-200</v>
       </c>
       <c r="L89" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="M89" s="3">
         <v>-600</v>
@@ -4147,16 +4581,22 @@
         <v>-500</v>
       </c>
       <c r="O89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4206,11 +4648,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -4218,11 +4660,17 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4336,13 +4796,13 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
@@ -4357,13 +4817,19 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,37 +5055,43 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
         <v>1000</v>
-      </c>
-      <c r="E100" s="3">
-        <v>600</v>
-      </c>
-      <c r="F100" s="3">
-        <v>400</v>
       </c>
       <c r="G100" s="3">
         <v>600</v>
       </c>
       <c r="H100" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="J100" s="3">
         <v>900</v>
       </c>
       <c r="K100" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M100" s="3">
         <v>600</v>
@@ -4608,16 +5100,22 @@
         <v>500</v>
       </c>
       <c r="O100" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P100" s="3">
         <v>500</v>
       </c>
       <c r="Q100" s="3">
+        <v>700</v>
+      </c>
+      <c r="R100" s="3">
+        <v>500</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4672,42 +5176,48 @@
         <v>400</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDXL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDXL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>MDXL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,11 +1059,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1051,20 +1071,20 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,22 +1178,23 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>700</v>
       </c>
       <c r="H17" s="3">
         <v>700</v>
@@ -1176,22 +1203,22 @@
         <v>700</v>
       </c>
       <c r="J17" s="3">
+        <v>700</v>
+      </c>
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
@@ -1200,13 +1227,16 @@
         <v>400</v>
       </c>
       <c r="R17" s="3">
+        <v>400</v>
+      </c>
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,13 +1244,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-700</v>
       </c>
       <c r="H18" s="3">
         <v>-700</v>
@@ -1229,22 +1259,22 @@
         <v>-700</v>
       </c>
       <c r="J18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-400</v>
       </c>
       <c r="P18" s="3">
         <v>-400</v>
@@ -1253,13 +1283,16 @@
         <v>-400</v>
       </c>
       <c r="R18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,13 +1378,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-700</v>
       </c>
       <c r="H21" s="3">
         <v>-700</v>
@@ -1356,20 +1393,20 @@
         <v>-700</v>
       </c>
       <c r="J21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,22 +1478,25 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-700</v>
       </c>
       <c r="H23" s="3">
         <v>-700</v>
@@ -1462,37 +1505,40 @@
         <v>-700</v>
       </c>
       <c r="J23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-400</v>
       </c>
       <c r="Q23" s="3">
         <v>-400</v>
       </c>
       <c r="R23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,22 +1646,25 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-700</v>
       </c>
       <c r="H26" s="3">
         <v>-700</v>
@@ -1621,51 +1673,54 @@
         <v>-700</v>
       </c>
       <c r="J26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-400</v>
       </c>
       <c r="Q26" s="3">
         <v>-400</v>
       </c>
       <c r="R26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-700</v>
       </c>
       <c r="H27" s="3">
         <v>-700</v>
@@ -1674,37 +1729,40 @@
         <v>-700</v>
       </c>
       <c r="J27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-400</v>
       </c>
       <c r="Q27" s="3">
         <v>-400</v>
       </c>
       <c r="R27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,22 +2038,25 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-700</v>
       </c>
       <c r="H33" s="3">
         <v>-700</v>
@@ -1992,37 +2065,40 @@
         <v>-700</v>
       </c>
       <c r="J33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-400</v>
       </c>
       <c r="Q33" s="3">
         <v>-400</v>
       </c>
       <c r="R33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,22 +2150,25 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-700</v>
       </c>
       <c r="H35" s="3">
         <v>-700</v>
@@ -2098,95 +2177,101 @@
         <v>-700</v>
       </c>
       <c r="J35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-400</v>
       </c>
       <c r="Q35" s="3">
         <v>-400</v>
       </c>
       <c r="R35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,22 +2313,23 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -2251,16 +2338,16 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>300</v>
-      </c>
-      <c r="M41" s="3">
-        <v>200</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
@@ -2269,19 +2356,22 @@
         <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="3">
         <v>300</v>
       </c>
       <c r="R41" s="3">
+        <v>300</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,19 +2423,22 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2354,20 +2447,20 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,31 +2535,34 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2492,40 +2591,43 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>400</v>
-      </c>
-      <c r="M46" s="3">
-        <v>200</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
@@ -2534,19 +2636,22 @@
         <v>200</v>
       </c>
       <c r="P46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
       </c>
       <c r="R46" s="3">
+        <v>300</v>
+      </c>
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2613,7 +2721,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
@@ -2622,7 +2730,7 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2639,8 +2747,8 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2681,22 +2792,22 @@
         <v>400</v>
       </c>
       <c r="L49" s="3">
+        <v>400</v>
+      </c>
+      <c r="M49" s="3">
         <v>300</v>
-      </c>
-      <c r="M49" s="3">
-        <v>200</v>
       </c>
       <c r="N49" s="3">
         <v>200</v>
       </c>
       <c r="O49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P49" s="3">
         <v>100</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
+      <c r="Q49" s="3">
+        <v>100</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>4</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,46 +3039,49 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>900</v>
-      </c>
-      <c r="G54" s="3">
-        <v>600</v>
       </c>
       <c r="H54" s="3">
         <v>600</v>
       </c>
       <c r="I54" s="3">
+        <v>600</v>
+      </c>
+      <c r="J54" s="3">
         <v>900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
-      </c>
-      <c r="M54" s="3">
-        <v>400</v>
       </c>
       <c r="N54" s="3">
         <v>400</v>
       </c>
       <c r="O54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P54" s="3">
         <v>300</v>
@@ -2964,13 +3090,16 @@
         <v>300</v>
       </c>
       <c r="R54" s="3">
+        <v>300</v>
+      </c>
+      <c r="S54" s="3">
         <v>100</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,22 +3141,23 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -3038,34 +3169,37 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>600</v>
       </c>
       <c r="O57" s="3">
         <v>600</v>
       </c>
       <c r="P57" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3137,8 +3274,8 @@
       <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="I59" s="3">
+        <v>100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -3152,8 +3289,8 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3164,14 +3301,17 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3179,52 +3319,55 @@
         <v>400</v>
       </c>
       <c r="E60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F60" s="3">
         <v>500</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
       </c>
       <c r="K60" s="3">
+        <v>200</v>
+      </c>
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
-      </c>
-      <c r="N60" s="3">
-        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>600</v>
       </c>
       <c r="P60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,7 +3375,7 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3291,17 +3437,17 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
       <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3311,8 +3457,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3497,13 +3655,13 @@
         <v>600</v>
       </c>
       <c r="E66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F66" s="3">
         <v>500</v>
       </c>
       <c r="G66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
@@ -3512,37 +3670,40 @@
         <v>400</v>
       </c>
       <c r="J66" s="3">
+        <v>400</v>
+      </c>
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>600</v>
       </c>
       <c r="O66" s="3">
         <v>600</v>
       </c>
       <c r="P66" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>700</v>
+      </c>
+      <c r="E76" s="3">
         <v>500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>500</v>
       </c>
       <c r="J76" s="3">
         <v>500</v>
       </c>
       <c r="K76" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-200</v>
       </c>
       <c r="O76" s="3">
         <v>-200</v>
       </c>
       <c r="P76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,80 +4281,86 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-700</v>
       </c>
       <c r="H81" s="3">
         <v>-700</v>
@@ -4174,37 +4369,40 @@
         <v>-700</v>
       </c>
       <c r="J81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-400</v>
       </c>
       <c r="Q81" s="3">
         <v>-400</v>
       </c>
       <c r="R81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4259,8 +4458,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-800</v>
+        <v>-1200</v>
       </c>
       <c r="E89" s="3">
         <v>-800</v>
       </c>
       <c r="F89" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="G89" s="3">
         <v>-600</v>
       </c>
       <c r="H89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-700</v>
       </c>
       <c r="J89" s="3">
         <v>-700</v>
       </c>
       <c r="K89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-500</v>
       </c>
       <c r="Q89" s="3">
         <v>-500</v>
       </c>
       <c r="R89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4654,8 +4875,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -4666,11 +4887,14 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,13 +5002,16 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4802,34 +5032,37 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDXL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDXL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>MDXL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +809,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1062,35 +1101,35 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,34 +1230,36 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>700</v>
-      </c>
-      <c r="I17" s="3">
-        <v>700</v>
       </c>
       <c r="J17" s="3">
         <v>700</v>
       </c>
       <c r="K17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L17" s="3">
         <v>700</v>
@@ -1215,28 +1268,34 @@
         <v>600</v>
       </c>
       <c r="N17" s="3">
+        <v>700</v>
+      </c>
+      <c r="O17" s="3">
+        <v>600</v>
+      </c>
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>400</v>
       </c>
       <c r="S17" s="3">
+        <v>400</v>
+      </c>
+      <c r="T17" s="3">
+        <v>400</v>
+      </c>
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,25 +1303,25 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-700</v>
       </c>
       <c r="J18" s="3">
         <v>-700</v>
       </c>
       <c r="K18" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="L18" s="3">
         <v>-700</v>
@@ -1271,28 +1330,34 @@
         <v>-600</v>
       </c>
       <c r="N18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-400</v>
       </c>
       <c r="R18" s="3">
         <v>-400</v>
       </c>
       <c r="S18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1436,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,25 +1451,25 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-700</v>
       </c>
       <c r="J21" s="3">
         <v>-700</v>
       </c>
       <c r="K21" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="L21" s="3">
         <v>-700</v>
@@ -1405,14 +1478,14 @@
         <v>-600</v>
       </c>
       <c r="N21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,8 +1498,14 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,34 +1560,40 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-700</v>
       </c>
       <c r="J23" s="3">
         <v>-700</v>
       </c>
       <c r="K23" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="L23" s="3">
         <v>-700</v>
@@ -1517,28 +1602,34 @@
         <v>-600</v>
       </c>
       <c r="N23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,34 +1746,40 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-700</v>
       </c>
       <c r="J26" s="3">
         <v>-700</v>
       </c>
       <c r="K26" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="L26" s="3">
         <v>-700</v>
@@ -1685,54 +1788,60 @@
         <v>-600</v>
       </c>
       <c r="N26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-700</v>
       </c>
       <c r="J27" s="3">
         <v>-700</v>
       </c>
       <c r="K27" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="L27" s="3">
         <v>-700</v>
@@ -1741,28 +1850,34 @@
         <v>-600</v>
       </c>
       <c r="N27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,34 +2180,40 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-700</v>
       </c>
       <c r="J33" s="3">
         <v>-700</v>
       </c>
       <c r="K33" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="L33" s="3">
         <v>-700</v>
@@ -2077,28 +2222,34 @@
         <v>-600</v>
       </c>
       <c r="N33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,34 +2304,40 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-700</v>
       </c>
       <c r="J35" s="3">
         <v>-700</v>
       </c>
       <c r="K35" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="L35" s="3">
         <v>-700</v>
@@ -2189,89 +2346,101 @@
         <v>-600</v>
       </c>
       <c r="N35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2485,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="E41" s="3">
         <v>600</v>
       </c>
       <c r="F41" s="3">
+        <v>500</v>
+      </c>
+      <c r="G41" s="3">
+        <v>600</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
-      </c>
-      <c r="N41" s="3">
-        <v>200</v>
-      </c>
-      <c r="O41" s="3">
-        <v>200</v>
       </c>
       <c r="P41" s="3">
         <v>200</v>
       </c>
       <c r="Q41" s="3">
+        <v>200</v>
+      </c>
+      <c r="R41" s="3">
+        <v>200</v>
+      </c>
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,16 +2605,22 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
@@ -2443,30 +2628,30 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,20 +2729,26 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2564,11 +2761,11 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2594,64 +2791,76 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
-      </c>
-      <c r="K46" s="3">
-        <v>400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>400</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
+        <v>200</v>
+      </c>
+      <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>100</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2724,19 +2939,19 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2750,11 +2965,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
@@ -2762,8 +2977,14 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2795,31 +3016,37 @@
         <v>400</v>
       </c>
       <c r="M49" s="3">
+        <v>400</v>
+      </c>
+      <c r="N49" s="3">
+        <v>400</v>
+      </c>
+      <c r="O49" s="3">
         <v>300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>100</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,37 +3287,43 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F54" s="3">
         <v>1300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>900</v>
       </c>
       <c r="H54" s="3">
         <v>600</v>
       </c>
       <c r="I54" s="3">
+        <v>900</v>
+      </c>
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
+        <v>600</v>
+      </c>
+      <c r="L54" s="3">
         <v>900</v>
-      </c>
-      <c r="K54" s="3">
-        <v>700</v>
-      </c>
-      <c r="L54" s="3">
-        <v>400</v>
       </c>
       <c r="M54" s="3">
         <v>700</v>
@@ -3081,25 +3332,31 @@
         <v>400</v>
       </c>
       <c r="O54" s="3">
+        <v>700</v>
+      </c>
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
-        <v>300</v>
-      </c>
       <c r="Q54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
       </c>
       <c r="S54" s="3">
+        <v>300</v>
+      </c>
+      <c r="T54" s="3">
+        <v>300</v>
+      </c>
+      <c r="U54" s="3">
         <v>100</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,28 +3401,30 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
-        <v>200</v>
-      </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -3172,57 +3433,63 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
       </c>
       <c r="O57" s="3">
+        <v>300</v>
+      </c>
+      <c r="P57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3254,16 +3521,22 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -3277,11 +3550,11 @@
       <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
+        <v>100</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
@@ -3292,11 +3565,11 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3304,85 +3577,97 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>500</v>
       </c>
       <c r="O60" s="3">
+        <v>300</v>
+      </c>
+      <c r="P60" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3422,13 +3707,19 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3440,31 +3731,31 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
       </c>
       <c r="K66" s="3">
+        <v>400</v>
+      </c>
+      <c r="L66" s="3">
+        <v>400</v>
+      </c>
+      <c r="M66" s="3">
         <v>200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>300</v>
       </c>
       <c r="N66" s="3">
         <v>500</v>
       </c>
       <c r="O66" s="3">
+        <v>300</v>
+      </c>
+      <c r="P66" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-17600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-16600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-15500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-13600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-12400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-11600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-11000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-10200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-9700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-9000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-8300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-7300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-6500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-6100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-5700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>400</v>
+      </c>
+      <c r="F76" s="3">
         <v>700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,95 +4661,107 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-700</v>
       </c>
       <c r="J81" s="3">
         <v>-700</v>
       </c>
       <c r="K81" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="L81" s="3">
         <v>-700</v>
@@ -4381,28 +4770,34 @@
         <v>-600</v>
       </c>
       <c r="N81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4461,11 +4858,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,46 +5186,52 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-700</v>
       </c>
       <c r="N89" s="3">
-        <v>-600</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="P89" s="3">
         <v>-600</v>
@@ -4807,16 +5240,22 @@
         <v>-500</v>
       </c>
       <c r="R89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,13 +5276,15 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4878,11 +5319,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
@@ -4890,11 +5331,17 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,20 +5458,26 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5035,13 +5494,13 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
@@ -5056,13 +5515,19 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,46 +5792,52 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
-      </c>
-      <c r="H100" s="3">
-        <v>600</v>
-      </c>
-      <c r="I100" s="3">
-        <v>400</v>
       </c>
       <c r="J100" s="3">
         <v>600</v>
       </c>
       <c r="K100" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="M100" s="3">
         <v>900</v>
       </c>
       <c r="N100" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="P100" s="3">
         <v>600</v>
@@ -5355,16 +5846,22 @@
         <v>500</v>
       </c>
       <c r="R100" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="S100" s="3">
         <v>500</v>
       </c>
       <c r="T100" s="3">
+        <v>700</v>
+      </c>
+      <c r="U100" s="3">
+        <v>500</v>
+      </c>
+      <c r="V100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5916,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
-      </c>
-      <c r="E102" s="3">
-        <v>400</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-300</v>
       </c>
       <c r="G102" s="3">
         <v>400</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDXL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDXL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>MDXL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,104 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,7 +770,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -815,8 +823,14 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1107,35 +1147,35 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,40 +1284,42 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>700</v>
       </c>
       <c r="L17" s="3">
         <v>700</v>
       </c>
       <c r="M17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N17" s="3">
         <v>700</v>
@@ -1274,28 +1328,34 @@
         <v>600</v>
       </c>
       <c r="P17" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
-      </c>
-      <c r="R17" s="3">
-        <v>400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>400</v>
       </c>
       <c r="T17" s="3">
         <v>400</v>
       </c>
       <c r="U17" s="3">
+        <v>400</v>
+      </c>
+      <c r="V17" s="3">
+        <v>400</v>
+      </c>
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,31 +1363,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-700</v>
       </c>
       <c r="L18" s="3">
         <v>-700</v>
       </c>
       <c r="M18" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="N18" s="3">
         <v>-700</v>
@@ -1336,28 +1396,34 @@
         <v>-600</v>
       </c>
       <c r="P18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-400</v>
       </c>
       <c r="T18" s="3">
         <v>-400</v>
       </c>
       <c r="U18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,8 +1510,14 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,31 +1525,31 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-700</v>
       </c>
       <c r="L21" s="3">
         <v>-700</v>
       </c>
       <c r="M21" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="N21" s="3">
         <v>-700</v>
@@ -1484,14 +1558,14 @@
         <v>-600</v>
       </c>
       <c r="P21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1504,8 +1578,14 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,40 +1646,46 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-700</v>
       </c>
       <c r="L23" s="3">
         <v>-700</v>
       </c>
       <c r="M23" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="N23" s="3">
         <v>-700</v>
@@ -1608,28 +1694,34 @@
         <v>-600</v>
       </c>
       <c r="P23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,40 +1850,46 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-700</v>
       </c>
       <c r="L26" s="3">
         <v>-700</v>
       </c>
       <c r="M26" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="N26" s="3">
         <v>-700</v>
@@ -1794,60 +1898,66 @@
         <v>-600</v>
       </c>
       <c r="P26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-700</v>
       </c>
       <c r="L27" s="3">
         <v>-700</v>
       </c>
       <c r="M27" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="N27" s="3">
         <v>-700</v>
@@ -1856,28 +1966,34 @@
         <v>-600</v>
       </c>
       <c r="P27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,40 +2326,46 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-700</v>
       </c>
       <c r="L33" s="3">
         <v>-700</v>
       </c>
       <c r="M33" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="N33" s="3">
         <v>-700</v>
@@ -2228,28 +2374,34 @@
         <v>-600</v>
       </c>
       <c r="P33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,40 +2462,46 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-700</v>
       </c>
       <c r="L35" s="3">
         <v>-700</v>
       </c>
       <c r="M35" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="N35" s="3">
         <v>-700</v>
@@ -2352,95 +2510,107 @@
         <v>-600</v>
       </c>
       <c r="P35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2659,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>1300</v>
-      </c>
-      <c r="E41" s="3">
-        <v>600</v>
-      </c>
-      <c r="F41" s="3">
-        <v>500</v>
       </c>
       <c r="G41" s="3">
         <v>600</v>
       </c>
       <c r="H41" s="3">
+        <v>500</v>
+      </c>
+      <c r="I41" s="3">
+        <v>600</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>300</v>
-      </c>
-      <c r="P41" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>200</v>
       </c>
       <c r="R41" s="3">
         <v>200</v>
       </c>
       <c r="S41" s="3">
+        <v>200</v>
+      </c>
+      <c r="T41" s="3">
+        <v>200</v>
+      </c>
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2791,14 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2625,8 +2811,8 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -2634,30 +2820,30 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2673,8 +2859,14 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,26 +2927,32 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
       </c>
       <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
+        <v>500</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2767,11 +2965,11 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2797,70 +2995,82 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>400</v>
       </c>
       <c r="P46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
       <c r="S46" s="3">
+        <v>200</v>
+      </c>
+      <c r="T46" s="3">
+        <v>200</v>
+      </c>
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>100</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,16 +3131,22 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -2945,19 +3161,19 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2971,11 +3187,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
@@ -2983,16 +3199,22 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F49" s="3">
         <v>400</v>
@@ -3022,31 +3244,37 @@
         <v>400</v>
       </c>
       <c r="O49" s="3">
+        <v>400</v>
+      </c>
+      <c r="P49" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q49" s="3">
         <v>300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>100</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,43 +3539,49 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F54" s="3">
         <v>2300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>600</v>
-      </c>
-      <c r="I54" s="3">
-        <v>900</v>
       </c>
       <c r="J54" s="3">
         <v>600</v>
       </c>
       <c r="K54" s="3">
+        <v>900</v>
+      </c>
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
+        <v>600</v>
+      </c>
+      <c r="N54" s="3">
         <v>900</v>
-      </c>
-      <c r="M54" s="3">
-        <v>700</v>
-      </c>
-      <c r="N54" s="3">
-        <v>400</v>
       </c>
       <c r="O54" s="3">
         <v>700</v>
@@ -3338,25 +3590,31 @@
         <v>400</v>
       </c>
       <c r="Q54" s="3">
+        <v>700</v>
+      </c>
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
-        <v>300</v>
-      </c>
       <c r="S54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T54" s="3">
         <v>300</v>
       </c>
       <c r="U54" s="3">
+        <v>300</v>
+      </c>
+      <c r="V54" s="3">
+        <v>300</v>
+      </c>
+      <c r="W54" s="3">
         <v>100</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,34 +3663,36 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
-        <v>200</v>
-      </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -3439,48 +3701,54 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
       </c>
       <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
+        <v>500</v>
+      </c>
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -3491,11 +3759,11 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3527,22 +3795,28 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -3556,11 +3830,11 @@
       <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
+        <v>100</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
@@ -3571,11 +3845,11 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3583,76 +3857,88 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
+      <c r="U59" s="3">
+        <v>0</v>
       </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>300</v>
       </c>
       <c r="P60" s="3">
         <v>500</v>
       </c>
       <c r="Q60" s="3">
+        <v>300</v>
+      </c>
+      <c r="R60" s="3">
+        <v>500</v>
+      </c>
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3660,20 +3946,20 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3713,19 +3999,25 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3737,31 +4029,31 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>700</v>
+      </c>
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>400</v>
       </c>
       <c r="L66" s="3">
         <v>400</v>
       </c>
       <c r="M66" s="3">
+        <v>400</v>
+      </c>
+      <c r="N66" s="3">
+        <v>400</v>
+      </c>
+      <c r="O66" s="3">
         <v>200</v>
-      </c>
-      <c r="N66" s="3">
-        <v>500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>300</v>
       </c>
       <c r="P66" s="3">
         <v>500</v>
       </c>
       <c r="Q66" s="3">
+        <v>300</v>
+      </c>
+      <c r="R66" s="3">
+        <v>500</v>
+      </c>
+      <c r="S66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-20900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-19600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-17600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-16600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-15500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-12400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-11600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-11000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-10200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-9700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-9000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-7300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-6800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-6500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-6100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-5700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E76" s="3">
         <v>400</v>
       </c>
       <c r="F76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>400</v>
+      </c>
+      <c r="H76" s="3">
         <v>700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>500</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
         <v>400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,107 +5045,119 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-700</v>
       </c>
       <c r="L81" s="3">
         <v>-700</v>
       </c>
       <c r="M81" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="N81" s="3">
         <v>-700</v>
@@ -4776,28 +5166,34 @@
         <v>-600</v>
       </c>
       <c r="P81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4864,11 +5262,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,52 +5620,58 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-700</v>
       </c>
       <c r="P89" s="3">
-        <v>-600</v>
+        <v>-200</v>
       </c>
       <c r="Q89" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="R89" s="3">
         <v>-600</v>
@@ -5246,16 +5680,22 @@
         <v>-500</v>
       </c>
       <c r="T89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,19 +5718,21 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5325,11 +5767,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
@@ -5337,11 +5779,17 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5473,17 +5933,17 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5500,13 +5960,13 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
@@ -5521,13 +5981,19 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,52 +6284,58 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F100" s="3">
         <v>2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>600</v>
-      </c>
-      <c r="K100" s="3">
-        <v>400</v>
       </c>
       <c r="L100" s="3">
         <v>600</v>
       </c>
       <c r="M100" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="O100" s="3">
         <v>900</v>
       </c>
       <c r="P100" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="R100" s="3">
         <v>600</v>
@@ -5852,16 +6344,22 @@
         <v>500</v>
       </c>
       <c r="T100" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="U100" s="3">
         <v>500</v>
       </c>
       <c r="V100" s="3">
+        <v>700</v>
+      </c>
+      <c r="W100" s="3">
+        <v>500</v>
+      </c>
+      <c r="X100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6420,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>400</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-300</v>
       </c>
       <c r="I102" s="3">
         <v>400</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDXL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDXL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>MDXL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,11 +773,11 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1153,11 +1172,11 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1165,20 +1184,20 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,37 +1311,38 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>700</v>
       </c>
       <c r="M17" s="3">
         <v>700</v>
@@ -1325,22 +1351,22 @@
         <v>700</v>
       </c>
       <c r="O17" s="3">
+        <v>700</v>
+      </c>
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
-      </c>
-      <c r="T17" s="3">
-        <v>400</v>
       </c>
       <c r="U17" s="3">
         <v>400</v>
@@ -1349,13 +1375,16 @@
         <v>400</v>
       </c>
       <c r="W17" s="3">
+        <v>400</v>
+      </c>
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,28 +1392,28 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-700</v>
       </c>
       <c r="M18" s="3">
         <v>-700</v>
@@ -1393,22 +1422,22 @@
         <v>-700</v>
       </c>
       <c r="O18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-400</v>
       </c>
       <c r="U18" s="3">
         <v>-400</v>
@@ -1417,13 +1446,16 @@
         <v>-400</v>
       </c>
       <c r="W18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,8 +1549,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,28 +1561,28 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-700</v>
       </c>
       <c r="M21" s="3">
         <v>-700</v>
@@ -1555,20 +1591,20 @@
         <v>-700</v>
       </c>
       <c r="O21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1584,8 +1620,11 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,37 +1691,40 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-700</v>
       </c>
       <c r="M23" s="3">
         <v>-700</v>
@@ -1691,37 +1733,40 @@
         <v>-700</v>
       </c>
       <c r="O23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-400</v>
       </c>
       <c r="V23" s="3">
         <v>-400</v>
       </c>
       <c r="W23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,37 +1904,40 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-700</v>
       </c>
       <c r="M26" s="3">
         <v>-700</v>
@@ -1895,66 +1946,69 @@
         <v>-700</v>
       </c>
       <c r="O26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-400</v>
       </c>
       <c r="V26" s="3">
         <v>-400</v>
       </c>
       <c r="W26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-700</v>
       </c>
       <c r="M27" s="3">
         <v>-700</v>
@@ -1963,37 +2017,40 @@
         <v>-700</v>
       </c>
       <c r="O27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-400</v>
       </c>
       <c r="V27" s="3">
         <v>-400</v>
       </c>
       <c r="W27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,37 +2401,40 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-700</v>
       </c>
       <c r="M33" s="3">
         <v>-700</v>
@@ -2371,37 +2443,40 @@
         <v>-700</v>
       </c>
       <c r="O33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-400</v>
       </c>
       <c r="V33" s="3">
         <v>-400</v>
       </c>
       <c r="W33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,37 +2543,40 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-700</v>
       </c>
       <c r="M35" s="3">
         <v>-700</v>
@@ -2507,110 +2585,116 @@
         <v>-700</v>
       </c>
       <c r="O35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-400</v>
       </c>
       <c r="V35" s="3">
         <v>-400</v>
       </c>
       <c r="W35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,37 +2746,38 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
@@ -2700,16 +2786,16 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>300</v>
-      </c>
-      <c r="R41" s="3">
-        <v>200</v>
       </c>
       <c r="S41" s="3">
         <v>200</v>
@@ -2718,19 +2804,22 @@
         <v>200</v>
       </c>
       <c r="U41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V41" s="3">
         <v>300</v>
       </c>
       <c r="W41" s="3">
+        <v>300</v>
+      </c>
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2817,14 +2909,14 @@
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2833,20 +2925,20 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2942,7 +3040,7 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
@@ -2951,11 +3049,11 @@
         <v>500</v>
       </c>
       <c r="H45" s="3">
+        <v>500</v>
+      </c>
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2971,8 +3069,8 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3001,55 +3099,58 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>400</v>
-      </c>
-      <c r="R46" s="3">
-        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
@@ -3058,19 +3159,22 @@
         <v>200</v>
       </c>
       <c r="U46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V46" s="3">
         <v>300</v>
       </c>
       <c r="W46" s="3">
+        <v>300</v>
+      </c>
+      <c r="X46" s="3">
         <v>100</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,19 +3241,22 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>300</v>
+      </c>
+      <c r="E48" s="3">
         <v>400</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -3167,7 +3274,7 @@
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -3176,7 +3283,7 @@
         <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3193,8 +3300,8 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
+      <c r="U48" s="3">
+        <v>0</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>4</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3217,7 +3327,7 @@
         <v>500</v>
       </c>
       <c r="F49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G49" s="3">
         <v>400</v>
@@ -3250,22 +3360,22 @@
         <v>400</v>
       </c>
       <c r="Q49" s="3">
+        <v>400</v>
+      </c>
+      <c r="R49" s="3">
         <v>300</v>
-      </c>
-      <c r="R49" s="3">
-        <v>200</v>
       </c>
       <c r="S49" s="3">
         <v>200</v>
       </c>
       <c r="T49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U49" s="3">
         <v>100</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
+      <c r="V49" s="3">
+        <v>100</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>4</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,61 +3667,64 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>900</v>
-      </c>
-      <c r="L54" s="3">
-        <v>600</v>
       </c>
       <c r="M54" s="3">
         <v>600</v>
       </c>
       <c r="N54" s="3">
+        <v>600</v>
+      </c>
+      <c r="O54" s="3">
         <v>900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
-      </c>
-      <c r="R54" s="3">
-        <v>400</v>
       </c>
       <c r="S54" s="3">
         <v>400</v>
       </c>
       <c r="T54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U54" s="3">
         <v>300</v>
@@ -3608,13 +3733,16 @@
         <v>300</v>
       </c>
       <c r="W54" s="3">
+        <v>300</v>
+      </c>
+      <c r="X54" s="3">
         <v>100</v>
       </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,37 +3794,38 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -3707,34 +3837,37 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
-      </c>
-      <c r="S57" s="3">
-        <v>600</v>
       </c>
       <c r="T57" s="3">
         <v>600</v>
       </c>
       <c r="U57" s="3">
+        <v>600</v>
+      </c>
+      <c r="V57" s="3">
         <v>800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3745,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -3765,8 +3898,8 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3801,17 +3934,20 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
@@ -3819,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -3836,8 +3972,8 @@
       <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
+      <c r="N59" s="3">
+        <v>100</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
@@ -3851,8 +3987,8 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -3863,82 +3999,88 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
       </c>
       <c r="J60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>500</v>
       </c>
       <c r="L60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
       </c>
       <c r="N60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
       </c>
       <c r="P60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
-      </c>
-      <c r="S60" s="3">
-        <v>600</v>
       </c>
       <c r="T60" s="3">
         <v>600</v>
       </c>
       <c r="U60" s="3">
+        <v>600</v>
+      </c>
+      <c r="V60" s="3">
         <v>800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3952,16 +4094,16 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>200</v>
       </c>
       <c r="I61" s="3">
         <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -4005,13 +4147,16 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>200</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>4</v>
@@ -4019,8 +4164,8 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -4035,17 +4180,17 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
       </c>
       <c r="N62" s="3">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4055,8 +4200,8 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,37 +4431,40 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1300</v>
       </c>
       <c r="G66" s="3">
         <v>1300</v>
       </c>
       <c r="H66" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="I66" s="3">
         <v>600</v>
       </c>
       <c r="J66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K66" s="3">
         <v>500</v>
       </c>
       <c r="L66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M66" s="3">
         <v>400</v>
@@ -4316,37 +4473,40 @@
         <v>400</v>
       </c>
       <c r="O66" s="3">
+        <v>400</v>
+      </c>
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>500</v>
-      </c>
-      <c r="S66" s="3">
-        <v>600</v>
       </c>
       <c r="T66" s="3">
         <v>600</v>
       </c>
       <c r="U66" s="3">
+        <v>600</v>
+      </c>
+      <c r="V66" s="3">
         <v>800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-6800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-6500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-6100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E76" s="3">
         <v>100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>500</v>
       </c>
       <c r="O76" s="3">
         <v>500</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
         <v>400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-100</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-200</v>
       </c>
       <c r="T76" s="3">
         <v>-200</v>
       </c>
       <c r="U76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V76" s="3">
         <v>-500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,110 +5239,116 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-700</v>
       </c>
       <c r="M81" s="3">
         <v>-700</v>
@@ -5163,37 +5357,40 @@
         <v>-700</v>
       </c>
       <c r="O81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-400</v>
       </c>
       <c r="V81" s="3">
         <v>-400</v>
       </c>
       <c r="W81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5268,8 +5466,8 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>4</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-800</v>
       </c>
       <c r="J89" s="3">
         <v>-800</v>
       </c>
       <c r="K89" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="L89" s="3">
         <v>-600</v>
       </c>
       <c r="M89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N89" s="3">
         <v>-400</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-700</v>
       </c>
       <c r="O89" s="3">
         <v>-700</v>
       </c>
       <c r="P89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-500</v>
       </c>
       <c r="V89" s="3">
         <v>-500</v>
       </c>
       <c r="W89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X89" s="3">
         <v>-700</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5734,8 +5954,8 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -5773,8 +5993,8 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
@@ -5785,11 +6005,14 @@
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5939,14 +6168,14 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5966,34 +6195,37 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
         <v>-100</v>
       </c>
       <c r="V102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDXL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDXL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>MDXL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -776,14 +784,14 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -835,8 +843,14 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,64 +1180,70 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,49 +1364,51 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>700</v>
       </c>
       <c r="O17" s="3">
         <v>700</v>
       </c>
       <c r="P17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q17" s="3">
         <v>700</v>
@@ -1363,28 +1417,34 @@
         <v>600</v>
       </c>
       <c r="S17" s="3">
+        <v>700</v>
+      </c>
+      <c r="T17" s="3">
+        <v>600</v>
+      </c>
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
-      </c>
-      <c r="U17" s="3">
-        <v>400</v>
-      </c>
-      <c r="V17" s="3">
-        <v>400</v>
       </c>
       <c r="W17" s="3">
         <v>400</v>
       </c>
       <c r="X17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,40 +1452,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-700</v>
       </c>
       <c r="O18" s="3">
         <v>-700</v>
       </c>
       <c r="P18" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="Q18" s="3">
         <v>-700</v>
@@ -1434,28 +1494,34 @@
         <v>-600</v>
       </c>
       <c r="S18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-400</v>
       </c>
       <c r="W18" s="3">
         <v>-400</v>
       </c>
       <c r="X18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1552,8 +1620,14 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,40 +1635,40 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-700</v>
       </c>
       <c r="O21" s="3">
         <v>-700</v>
       </c>
       <c r="P21" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="Q21" s="3">
         <v>-700</v>
@@ -1603,14 +1677,14 @@
         <v>-600</v>
       </c>
       <c r="S21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U21" s="3">
         <v>-1000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1623,8 +1697,14 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,49 +1774,55 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-700</v>
       </c>
       <c r="O23" s="3">
         <v>-700</v>
       </c>
       <c r="P23" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="Q23" s="3">
         <v>-700</v>
@@ -1745,28 +1831,34 @@
         <v>-600</v>
       </c>
       <c r="S23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,49 +2005,55 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-700</v>
       </c>
       <c r="O26" s="3">
         <v>-700</v>
       </c>
       <c r="P26" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="Q26" s="3">
         <v>-700</v>
@@ -1958,69 +2062,75 @@
         <v>-600</v>
       </c>
       <c r="S26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-700</v>
       </c>
       <c r="O27" s="3">
         <v>-700</v>
       </c>
       <c r="P27" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="Q27" s="3">
         <v>-700</v>
@@ -2029,28 +2139,34 @@
         <v>-600</v>
       </c>
       <c r="S27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2404,49 +2544,55 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-700</v>
       </c>
       <c r="O33" s="3">
         <v>-700</v>
       </c>
       <c r="P33" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="Q33" s="3">
         <v>-700</v>
@@ -2455,28 +2601,34 @@
         <v>-600</v>
       </c>
       <c r="S33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,49 +2698,55 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-700</v>
       </c>
       <c r="O35" s="3">
         <v>-700</v>
       </c>
       <c r="P35" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="Q35" s="3">
         <v>-700</v>
@@ -2597,104 +2755,116 @@
         <v>-600</v>
       </c>
       <c r="S35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
-      </c>
-      <c r="E41" s="3">
-        <v>300</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>300</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>1300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>600</v>
-      </c>
-      <c r="I41" s="3">
-        <v>500</v>
       </c>
       <c r="J41" s="3">
         <v>600</v>
       </c>
       <c r="K41" s="3">
+        <v>500</v>
+      </c>
+      <c r="L41" s="3">
+        <v>600</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>300</v>
-      </c>
-      <c r="S41" s="3">
-        <v>200</v>
-      </c>
-      <c r="T41" s="3">
-        <v>200</v>
       </c>
       <c r="U41" s="3">
         <v>200</v>
       </c>
       <c r="V41" s="3">
+        <v>200</v>
+      </c>
+      <c r="W41" s="3">
+        <v>200</v>
+      </c>
+      <c r="X41" s="3">
         <v>300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,28 +3069,34 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2921,30 +3107,30 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2960,8 +3146,14 @@
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,35 +3223,41 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>500</v>
       </c>
       <c r="H45" s="3">
         <v>500</v>
       </c>
       <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>500</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3072,11 +3270,11 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3102,79 +3300,91 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>400</v>
       </c>
       <c r="S46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="U46" s="3">
         <v>200</v>
       </c>
       <c r="V46" s="3">
+        <v>200</v>
+      </c>
+      <c r="W46" s="3">
+        <v>200</v>
+      </c>
+      <c r="X46" s="3">
         <v>300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>100</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3253,16 +3469,16 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
+        <v>300</v>
+      </c>
+      <c r="F48" s="3">
+        <v>300</v>
+      </c>
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>100</v>
-      </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -3277,19 +3493,19 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3303,11 +3519,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
@@ -3315,25 +3531,31 @@
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E49" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F49" s="3">
         <v>500</v>
       </c>
       <c r="G49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I49" s="3">
         <v>400</v>
@@ -3363,31 +3585,37 @@
         <v>400</v>
       </c>
       <c r="R49" s="3">
+        <v>400</v>
+      </c>
+      <c r="S49" s="3">
+        <v>400</v>
+      </c>
+      <c r="T49" s="3">
         <v>300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>100</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,52 +3916,58 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E54" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F54" s="3">
         <v>1100</v>
       </c>
       <c r="G54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I54" s="3">
         <v>2300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>600</v>
-      </c>
-      <c r="L54" s="3">
-        <v>900</v>
       </c>
       <c r="M54" s="3">
         <v>600</v>
       </c>
       <c r="N54" s="3">
+        <v>900</v>
+      </c>
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q54" s="3">
         <v>900</v>
-      </c>
-      <c r="P54" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>400</v>
       </c>
       <c r="R54" s="3">
         <v>700</v>
@@ -3724,25 +3976,31 @@
         <v>400</v>
       </c>
       <c r="T54" s="3">
+        <v>700</v>
+      </c>
+      <c r="U54" s="3">
         <v>400</v>
       </c>
-      <c r="U54" s="3">
-        <v>300</v>
-      </c>
       <c r="V54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W54" s="3">
         <v>300</v>
       </c>
       <c r="X54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z54" s="3">
         <v>100</v>
       </c>
-      <c r="Y54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,43 +4055,45 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
-        <v>200</v>
-      </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
@@ -3840,57 +4102,63 @@
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>500</v>
       </c>
       <c r="T57" s="3">
+        <v>300</v>
+      </c>
+      <c r="U57" s="3">
+        <v>500</v>
+      </c>
+      <c r="V57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -3901,11 +4169,11 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3937,31 +4205,37 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -3975,11 +4249,11 @@
       <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
+      <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>100</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
@@ -3990,11 +4264,11 @@
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4002,93 +4276,105 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
+      <c r="X59" s="3">
+        <v>0</v>
       </c>
       <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>500</v>
-      </c>
-      <c r="R60" s="3">
-        <v>300</v>
       </c>
       <c r="S60" s="3">
         <v>500</v>
       </c>
       <c r="T60" s="3">
+        <v>300</v>
+      </c>
+      <c r="U60" s="3">
+        <v>500</v>
+      </c>
+      <c r="V60" s="3">
         <v>600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4097,20 +4383,20 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4150,28 +4436,34 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>200</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -4183,31 +4475,31 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F66" s="3">
         <v>1500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>400</v>
       </c>
       <c r="O66" s="3">
         <v>400</v>
       </c>
       <c r="P66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>400</v>
+      </c>
+      <c r="R66" s="3">
         <v>200</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>500</v>
-      </c>
-      <c r="R66" s="3">
-        <v>300</v>
       </c>
       <c r="S66" s="3">
         <v>500</v>
       </c>
       <c r="T66" s="3">
+        <v>300</v>
+      </c>
+      <c r="U66" s="3">
+        <v>500</v>
+      </c>
+      <c r="V66" s="3">
         <v>600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-25800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-24000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-22600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-20900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-19600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-17600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-16600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-15500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-13600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-12400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-11600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-11000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-9700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-9000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-8300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-7300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-6800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-6500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-6100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1000</v>
       </c>
       <c r="H76" s="3">
         <v>400</v>
       </c>
       <c r="I76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>400</v>
+      </c>
+      <c r="K76" s="3">
         <v>700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>500</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
         <v>400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,125 +5620,137 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-700</v>
       </c>
       <c r="O81" s="3">
         <v>-700</v>
       </c>
       <c r="P81" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="Q81" s="3">
         <v>-700</v>
@@ -5369,28 +5759,34 @@
         <v>-600</v>
       </c>
       <c r="S81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5469,11 +5867,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>4</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,61 +6270,67 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>-700</v>
       </c>
       <c r="S89" s="3">
-        <v>-600</v>
+        <v>-200</v>
       </c>
       <c r="T89" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="U89" s="3">
         <v>-600</v>
@@ -5905,16 +6339,22 @@
         <v>-500</v>
       </c>
       <c r="W89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-700</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5957,11 +6399,11 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5996,11 +6438,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
@@ -6008,11 +6450,17 @@
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6174,14 +6634,14 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -6198,13 +6658,13 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
@@ -6219,13 +6679,19 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,61 +7021,67 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
-      </c>
-      <c r="M100" s="3">
-        <v>600</v>
-      </c>
-      <c r="N100" s="3">
-        <v>400</v>
       </c>
       <c r="O100" s="3">
         <v>600</v>
       </c>
       <c r="P100" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="R100" s="3">
         <v>900</v>
       </c>
       <c r="S100" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="U100" s="3">
         <v>600</v>
@@ -6598,16 +7090,22 @@
         <v>500</v>
       </c>
       <c r="W100" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="X100" s="3">
         <v>500</v>
       </c>
       <c r="Y100" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +7175,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>400</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-300</v>
       </c>
       <c r="L102" s="3">
         <v>400</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDXL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDXL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>MDXL</t>
   </si>
@@ -2016,8 +2016,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-1600</v>
       </c>
       <c r="E26" s="3">
         <v>-2400</v>
@@ -2093,8 +2093,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-1600</v>
       </c>
       <c r="E27" s="3">
         <v>-2500</v>
@@ -2555,8 +2555,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-1600</v>
       </c>
       <c r="E33" s="3">
         <v>-2500</v>
@@ -2709,8 +2709,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-1600</v>
       </c>
       <c r="E35" s="3">
         <v>-2500</v>
@@ -5713,8 +5713,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-1600</v>
       </c>
       <c r="E81" s="3">
         <v>-2500</v>

--- a/AAII_Financials/Quarterly/MDXL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDXL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>MDXL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -790,11 +794,11 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1212,8 +1232,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1221,11 +1241,11 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1233,20 +1253,20 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,46 +1392,47 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="E17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>700</v>
       </c>
       <c r="P17" s="3">
         <v>700</v>
@@ -1414,22 +1441,22 @@
         <v>700</v>
       </c>
       <c r="R17" s="3">
+        <v>700</v>
+      </c>
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
-      </c>
-      <c r="W17" s="3">
-        <v>400</v>
       </c>
       <c r="X17" s="3">
         <v>400</v>
@@ -1438,13 +1465,16 @@
         <v>400</v>
       </c>
       <c r="Z17" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,37 +1482,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-700</v>
       </c>
       <c r="P18" s="3">
         <v>-700</v>
@@ -1491,22 +1521,22 @@
         <v>-700</v>
       </c>
       <c r="R18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-400</v>
       </c>
       <c r="X18" s="3">
         <v>-400</v>
@@ -1515,13 +1545,16 @@
         <v>-400</v>
       </c>
       <c r="Z18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,37 +1672,37 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-700</v>
       </c>
       <c r="P21" s="3">
         <v>-700</v>
@@ -1674,20 +1711,20 @@
         <v>-700</v>
       </c>
       <c r="R21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1000</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,46 +1820,49 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1600</v>
+        <v>-1100</v>
       </c>
       <c r="E23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-700</v>
       </c>
       <c r="P23" s="3">
         <v>-700</v>
@@ -1828,37 +1871,40 @@
         <v>-700</v>
       </c>
       <c r="R23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-400</v>
       </c>
       <c r="Y23" s="3">
         <v>-400</v>
       </c>
       <c r="Z23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,46 +2060,49 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1600</v>
+        <v>-1100</v>
       </c>
       <c r="E26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-700</v>
       </c>
       <c r="P26" s="3">
         <v>-700</v>
@@ -2059,75 +2111,78 @@
         <v>-700</v>
       </c>
       <c r="R26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-400</v>
       </c>
       <c r="Y26" s="3">
         <v>-400</v>
       </c>
       <c r="Z26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1600</v>
+        <v>-1200</v>
       </c>
       <c r="E27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-700</v>
       </c>
       <c r="P27" s="3">
         <v>-700</v>
@@ -2136,37 +2191,40 @@
         <v>-700</v>
       </c>
       <c r="R27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-400</v>
       </c>
       <c r="Y27" s="3">
         <v>-400</v>
       </c>
       <c r="Z27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2550,46 +2620,49 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1600</v>
+        <v>-1200</v>
       </c>
       <c r="E33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-700</v>
       </c>
       <c r="P33" s="3">
         <v>-700</v>
@@ -2598,37 +2671,40 @@
         <v>-700</v>
       </c>
       <c r="R33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-400</v>
       </c>
       <c r="Y33" s="3">
         <v>-400</v>
       </c>
       <c r="Z33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,46 +2780,49 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1600</v>
+        <v>-1200</v>
       </c>
       <c r="E35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-700</v>
       </c>
       <c r="P35" s="3">
         <v>-700</v>
@@ -2752,119 +2831,125 @@
         <v>-700</v>
       </c>
       <c r="R35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-400</v>
       </c>
       <c r="Y35" s="3">
         <v>-400</v>
       </c>
       <c r="Z35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,46 +3007,47 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
@@ -2969,16 +3056,16 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>300</v>
-      </c>
-      <c r="U41" s="3">
-        <v>200</v>
       </c>
       <c r="V41" s="3">
         <v>200</v>
@@ -2987,19 +3074,22 @@
         <v>200</v>
       </c>
       <c r="X41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y41" s="3">
         <v>300</v>
       </c>
       <c r="Z41" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA41" s="3">
         <v>100</v>
       </c>
-      <c r="AA41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3101,17 +3194,17 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -3120,20 +3213,20 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3238,16 +3337,16 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>300</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
       </c>
       <c r="H45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I45" s="3">
         <v>500</v>
@@ -3256,11 +3355,11 @@
         <v>500</v>
       </c>
       <c r="K45" s="3">
+        <v>500</v>
+      </c>
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3276,8 +3375,8 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3306,64 +3405,67 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
-      </c>
-      <c r="O46" s="3">
-        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
         <v>400</v>
-      </c>
-      <c r="U46" s="3">
-        <v>200</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
@@ -3372,19 +3474,22 @@
         <v>200</v>
       </c>
       <c r="X46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y46" s="3">
         <v>300</v>
       </c>
       <c r="Z46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA46" s="3">
         <v>100</v>
       </c>
-      <c r="AA46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3475,13 +3583,13 @@
         <v>300</v>
       </c>
       <c r="G48" s="3">
+        <v>300</v>
+      </c>
+      <c r="H48" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -3499,7 +3607,7 @@
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
@@ -3508,7 +3616,7 @@
         <v>200</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3525,8 +3633,8 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
+      <c r="X48" s="3">
+        <v>0</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>4</v>
@@ -3537,19 +3645,22 @@
       <c r="AA48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E49" s="3">
         <v>700</v>
       </c>
       <c r="F49" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G49" s="3">
         <v>500</v>
@@ -3558,7 +3669,7 @@
         <v>500</v>
       </c>
       <c r="I49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J49" s="3">
         <v>400</v>
@@ -3591,22 +3702,22 @@
         <v>400</v>
       </c>
       <c r="T49" s="3">
+        <v>400</v>
+      </c>
+      <c r="U49" s="3">
         <v>300</v>
-      </c>
-      <c r="U49" s="3">
-        <v>200</v>
       </c>
       <c r="V49" s="3">
         <v>200</v>
       </c>
       <c r="W49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X49" s="3">
         <v>100</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>4</v>
+      <c r="Y49" s="3">
+        <v>100</v>
       </c>
       <c r="Z49" s="3" t="s">
         <v>4</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,70 +4045,73 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E54" s="3">
         <v>1200</v>
       </c>
       <c r="F54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>900</v>
-      </c>
-      <c r="O54" s="3">
-        <v>600</v>
       </c>
       <c r="P54" s="3">
         <v>600</v>
       </c>
       <c r="Q54" s="3">
+        <v>600</v>
+      </c>
+      <c r="R54" s="3">
         <v>900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>700</v>
-      </c>
-      <c r="U54" s="3">
-        <v>400</v>
       </c>
       <c r="V54" s="3">
         <v>400</v>
       </c>
       <c r="W54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X54" s="3">
         <v>300</v>
@@ -3994,13 +4120,16 @@
         <v>300</v>
       </c>
       <c r="Z54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA54" s="3">
         <v>100</v>
       </c>
-      <c r="AA54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,46 +4187,47 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1200</v>
       </c>
       <c r="F57" s="3">
         <v>1200</v>
       </c>
       <c r="G57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
@@ -4108,45 +4239,48 @@
         <v>200</v>
       </c>
       <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
-      </c>
-      <c r="V57" s="3">
-        <v>600</v>
       </c>
       <c r="W57" s="3">
         <v>600</v>
       </c>
       <c r="X57" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y57" s="3">
         <v>800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>2000</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4155,13 +4289,13 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -4175,8 +4309,8 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4220,17 +4357,17 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
       </c>
       <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
@@ -4238,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -4255,8 +4392,8 @@
       <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
+      <c r="Q59" s="3">
+        <v>100</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
@@ -4270,8 +4407,8 @@
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4282,103 +4419,109 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1200</v>
       </c>
       <c r="F60" s="3">
         <v>1200</v>
       </c>
       <c r="G60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>400</v>
       </c>
       <c r="M60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N60" s="3">
         <v>500</v>
       </c>
       <c r="O60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
       </c>
       <c r="Q60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
       </c>
       <c r="S60" s="3">
+        <v>200</v>
+      </c>
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
-      </c>
-      <c r="V60" s="3">
-        <v>600</v>
       </c>
       <c r="W60" s="3">
         <v>600</v>
       </c>
       <c r="X60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y60" s="3">
         <v>800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>1300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -4389,16 +4532,16 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>200</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4456,8 +4602,8 @@
       <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -4465,8 +4611,8 @@
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -4481,17 +4627,17 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
       </c>
       <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+      <c r="R62" s="3">
         <v>200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4501,8 +4647,8 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,46 +4905,49 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1300</v>
       </c>
       <c r="J66" s="3">
         <v>1300</v>
       </c>
       <c r="K66" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="L66" s="3">
         <v>600</v>
       </c>
       <c r="M66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N66" s="3">
         <v>500</v>
       </c>
       <c r="O66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P66" s="3">
         <v>400</v>
@@ -4798,37 +4956,40 @@
         <v>400</v>
       </c>
       <c r="R66" s="3">
+        <v>400</v>
+      </c>
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>500</v>
-      </c>
-      <c r="V66" s="3">
-        <v>600</v>
       </c>
       <c r="W66" s="3">
         <v>600</v>
       </c>
       <c r="X66" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y66" s="3">
         <v>800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-29700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-28200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-25800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-20900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-9700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-9000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-7300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-6800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-6500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-6100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-5700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>300</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>500</v>
       </c>
       <c r="R76" s="3">
         <v>500</v>
       </c>
       <c r="S76" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
         <v>400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-100</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-200</v>
       </c>
       <c r="W76" s="3">
         <v>-200</v>
       </c>
       <c r="X76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,128 +5815,134 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1600</v>
+        <v>-1200</v>
       </c>
       <c r="E81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-700</v>
       </c>
       <c r="P81" s="3">
         <v>-700</v>
@@ -5756,37 +5951,40 @@
         <v>-700</v>
       </c>
       <c r="R81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-400</v>
       </c>
       <c r="Y81" s="3">
         <v>-400</v>
       </c>
       <c r="Z81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5873,8 +6072,8 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>4</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6285,76 +6502,79 @@
         <v>-900</v>
       </c>
       <c r="E89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-800</v>
       </c>
       <c r="M89" s="3">
         <v>-800</v>
       </c>
       <c r="N89" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="O89" s="3">
         <v>-600</v>
       </c>
       <c r="P89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-700</v>
       </c>
       <c r="R89" s="3">
         <v>-700</v>
       </c>
       <c r="S89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-600</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-500</v>
       </c>
       <c r="Y89" s="3">
         <v>-500</v>
       </c>
       <c r="Z89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-700</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,28 +6602,29 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -6444,8 +6665,8 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>4</v>
@@ -6456,11 +6677,14 @@
       <c r="Z91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6640,11 +6870,11 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -6664,34 +6894,37 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G100" s="3">
+        <v>700</v>
+      </c>
+      <c r="H100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N100" s="3">
+        <v>500</v>
+      </c>
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="P100" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>400</v>
+      </c>
+      <c r="R100" s="3">
+        <v>600</v>
+      </c>
+      <c r="S100" s="3">
+        <v>900</v>
+      </c>
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
+        <v>900</v>
+      </c>
+      <c r="V100" s="3">
+        <v>600</v>
+      </c>
+      <c r="W100" s="3">
+        <v>500</v>
+      </c>
+      <c r="X100" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K100" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>1300</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="AA100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O100" s="3">
-        <v>600</v>
-      </c>
-      <c r="P100" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>600</v>
-      </c>
-      <c r="R100" s="3">
-        <v>900</v>
-      </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
-      <c r="T100" s="3">
-        <v>900</v>
-      </c>
-      <c r="U100" s="3">
-        <v>600</v>
-      </c>
-      <c r="V100" s="3">
-        <v>500</v>
-      </c>
-      <c r="W100" s="3">
-        <v>600</v>
-      </c>
-      <c r="X100" s="3">
-        <v>500</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>700</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>500</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
         <v>-100</v>
       </c>
       <c r="Y102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDXL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDXL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
   <si>
     <t>MDXL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,122 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -797,11 +800,11 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -856,8 +859,11 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1025,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,37 +1222,40 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1244,11 +1263,11 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1256,20 +1275,20 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,49 +1418,50 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>700</v>
       </c>
       <c r="Q17" s="3">
         <v>700</v>
@@ -1444,22 +1470,22 @@
         <v>700</v>
       </c>
       <c r="S17" s="3">
+        <v>700</v>
+      </c>
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
-      </c>
-      <c r="X17" s="3">
-        <v>400</v>
       </c>
       <c r="Y17" s="3">
         <v>400</v>
@@ -1468,13 +1494,16 @@
         <v>400</v>
       </c>
       <c r="AA17" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,40 +1511,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-700</v>
       </c>
       <c r="Q18" s="3">
         <v>-700</v>
@@ -1524,22 +1553,22 @@
         <v>-700</v>
       </c>
       <c r="S18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-400</v>
       </c>
       <c r="Y18" s="3">
         <v>-400</v>
@@ -1548,13 +1577,16 @@
         <v>-400</v>
       </c>
       <c r="AA18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1615,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1663,8 +1696,11 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,40 +1708,40 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-700</v>
       </c>
       <c r="Q21" s="3">
         <v>-700</v>
@@ -1714,20 +1750,20 @@
         <v>-700</v>
       </c>
       <c r="S21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1000</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1743,8 +1779,11 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,49 +1862,52 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-700</v>
       </c>
       <c r="Q23" s="3">
         <v>-700</v>
@@ -1874,37 +1916,40 @@
         <v>-700</v>
       </c>
       <c r="S23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-400</v>
       </c>
       <c r="Z23" s="3">
         <v>-400</v>
       </c>
       <c r="AA23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,49 +2111,52 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-700</v>
       </c>
       <c r="Q26" s="3">
         <v>-700</v>
@@ -2114,78 +2165,81 @@
         <v>-700</v>
       </c>
       <c r="S26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-400</v>
       </c>
       <c r="Z26" s="3">
         <v>-400</v>
       </c>
       <c r="AA26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-700</v>
       </c>
       <c r="Q27" s="3">
         <v>-700</v>
@@ -2194,37 +2248,40 @@
         <v>-700</v>
       </c>
       <c r="S27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-400</v>
       </c>
       <c r="Z27" s="3">
         <v>-400</v>
       </c>
       <c r="AA27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2609,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2623,49 +2692,52 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-700</v>
       </c>
       <c r="Q33" s="3">
         <v>-700</v>
@@ -2674,37 +2746,40 @@
         <v>-700</v>
       </c>
       <c r="S33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-400</v>
       </c>
       <c r="Z33" s="3">
         <v>-400</v>
       </c>
       <c r="AA33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,49 +2858,52 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-700</v>
       </c>
       <c r="Q35" s="3">
         <v>-700</v>
@@ -2834,122 +2912,128 @@
         <v>-700</v>
       </c>
       <c r="S35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-400</v>
       </c>
       <c r="Z35" s="3">
         <v>-400</v>
       </c>
       <c r="AA35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,49 +3093,50 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
-      </c>
-      <c r="P41" s="3">
-        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
@@ -3059,16 +3145,16 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>300</v>
-      </c>
-      <c r="V41" s="3">
-        <v>200</v>
       </c>
       <c r="W41" s="3">
         <v>200</v>
@@ -3077,19 +3163,22 @@
         <v>200</v>
       </c>
       <c r="Y41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z41" s="3">
         <v>300</v>
       </c>
       <c r="AA41" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB41" s="3">
         <v>100</v>
       </c>
-      <c r="AB41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3257,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3197,17 +3289,17 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -3216,20 +3308,20 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3248,8 +3340,11 @@
       <c r="AB43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3423,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3340,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
       <c r="I45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J45" s="3">
         <v>500</v>
@@ -3358,11 +3456,11 @@
         <v>500</v>
       </c>
       <c r="L45" s="3">
+        <v>500</v>
+      </c>
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3378,8 +3476,8 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3408,67 +3506,70 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
-      </c>
-      <c r="E46" s="3">
-        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
-      </c>
-      <c r="P46" s="3">
-        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
         <v>400</v>
-      </c>
-      <c r="V46" s="3">
-        <v>200</v>
       </c>
       <c r="W46" s="3">
         <v>200</v>
@@ -3477,19 +3578,22 @@
         <v>200</v>
       </c>
       <c r="Y46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z46" s="3">
         <v>300</v>
       </c>
       <c r="AA46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB46" s="3">
         <v>100</v>
       </c>
-      <c r="AB46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3672,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3586,13 +3693,13 @@
         <v>300</v>
       </c>
       <c r="H48" s="3">
+        <v>300</v>
+      </c>
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -3610,7 +3717,7 @@
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
@@ -3619,7 +3726,7 @@
         <v>200</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3636,8 +3743,8 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
+      <c r="Y48" s="3">
+        <v>0</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>4</v>
@@ -3648,8 +3755,11 @@
       <c r="AB48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3657,13 +3767,13 @@
         <v>600</v>
       </c>
       <c r="E49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F49" s="3">
         <v>700</v>
       </c>
       <c r="G49" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="H49" s="3">
         <v>500</v>
@@ -3672,7 +3782,7 @@
         <v>500</v>
       </c>
       <c r="J49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K49" s="3">
         <v>400</v>
@@ -3705,22 +3815,22 @@
         <v>400</v>
       </c>
       <c r="U49" s="3">
+        <v>400</v>
+      </c>
+      <c r="V49" s="3">
         <v>300</v>
-      </c>
-      <c r="V49" s="3">
-        <v>200</v>
       </c>
       <c r="W49" s="3">
         <v>200</v>
       </c>
       <c r="X49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y49" s="3">
         <v>100</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>4</v>
+      <c r="Z49" s="3">
+        <v>100</v>
       </c>
       <c r="AA49" s="3" t="s">
         <v>4</v>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,73 +4170,76 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1000</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1200</v>
       </c>
       <c r="F54" s="3">
         <v>1200</v>
       </c>
       <c r="G54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>900</v>
-      </c>
-      <c r="P54" s="3">
-        <v>600</v>
       </c>
       <c r="Q54" s="3">
         <v>600</v>
       </c>
       <c r="R54" s="3">
+        <v>600</v>
+      </c>
+      <c r="S54" s="3">
         <v>900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>700</v>
-      </c>
-      <c r="V54" s="3">
-        <v>400</v>
       </c>
       <c r="W54" s="3">
         <v>400</v>
       </c>
       <c r="X54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y54" s="3">
         <v>300</v>
@@ -4123,13 +4248,16 @@
         <v>300</v>
       </c>
       <c r="AA54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB54" s="3">
         <v>100</v>
       </c>
-      <c r="AB54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4317,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4197,40 +4327,40 @@
         <v>1700</v>
       </c>
       <c r="E57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F57" s="3">
         <v>1300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1200</v>
       </c>
       <c r="G57" s="3">
         <v>1200</v>
       </c>
       <c r="H57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
@@ -4242,48 +4372,51 @@
         <v>200</v>
       </c>
       <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
-      </c>
-      <c r="W57" s="3">
-        <v>600</v>
       </c>
       <c r="X57" s="3">
         <v>600</v>
       </c>
       <c r="Y57" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z57" s="3">
         <v>800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -4292,13 +4425,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -4312,8 +4445,8 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4348,29 +4481,32 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
       <c r="H59" s="3">
+        <v>100</v>
+      </c>
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
@@ -4378,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
@@ -4395,8 +4531,8 @@
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
+      <c r="R59" s="3">
+        <v>100</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
@@ -4410,8 +4546,8 @@
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4422,94 +4558,100 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB59" s="3">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E60" s="3">
         <v>3700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1200</v>
       </c>
       <c r="G60" s="3">
         <v>1200</v>
       </c>
       <c r="H60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>400</v>
       </c>
       <c r="N60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O60" s="3">
         <v>500</v>
       </c>
       <c r="P60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q60" s="3">
         <v>300</v>
       </c>
       <c r="R60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
       </c>
       <c r="T60" s="3">
+        <v>200</v>
+      </c>
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>500</v>
-      </c>
-      <c r="W60" s="3">
-        <v>600</v>
       </c>
       <c r="X60" s="3">
         <v>600</v>
       </c>
       <c r="Y60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z60" s="3">
         <v>800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4517,14 +4659,14 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>1300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -4535,16 +4677,16 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>100</v>
-      </c>
-      <c r="L61" s="3">
-        <v>200</v>
       </c>
       <c r="M61" s="3">
         <v>200</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -4588,8 +4730,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4605,8 +4750,8 @@
       <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -4614,8 +4759,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4630,17 +4775,17 @@
         <v>0</v>
       </c>
       <c r="P62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
       </c>
       <c r="R62" s="3">
+        <v>100</v>
+      </c>
+      <c r="S62" s="3">
         <v>200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4650,8 +4795,8 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,49 +5062,52 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E66" s="3">
         <v>3900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1300</v>
       </c>
       <c r="K66" s="3">
         <v>1300</v>
       </c>
       <c r="L66" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="M66" s="3">
         <v>600</v>
       </c>
       <c r="N66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O66" s="3">
         <v>500</v>
       </c>
       <c r="P66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q66" s="3">
         <v>400</v>
@@ -4959,37 +5116,40 @@
         <v>400</v>
       </c>
       <c r="S66" s="3">
+        <v>400</v>
+      </c>
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>500</v>
-      </c>
-      <c r="W66" s="3">
-        <v>600</v>
       </c>
       <c r="X66" s="3">
         <v>600</v>
       </c>
       <c r="Y66" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z66" s="3">
         <v>800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-29700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-28200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-25800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-24000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-9700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-9000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-7300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-6800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-6500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-6100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-5700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
-      </c>
-      <c r="R76" s="3">
-        <v>500</v>
       </c>
       <c r="S76" s="3">
         <v>500</v>
       </c>
       <c r="T76" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
         <v>400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-100</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-200</v>
       </c>
       <c r="X76" s="3">
         <v>-200</v>
       </c>
       <c r="Y76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,134 +6006,140 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-700</v>
       </c>
       <c r="Q81" s="3">
         <v>-700</v>
@@ -5954,37 +6148,40 @@
         <v>-700</v>
       </c>
       <c r="S81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-400</v>
       </c>
       <c r="Z81" s="3">
         <v>-400</v>
       </c>
       <c r="AA81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6075,8 +6273,8 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
+      <c r="W83" s="3">
+        <v>0</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>4</v>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-800</v>
       </c>
       <c r="N89" s="3">
         <v>-800</v>
       </c>
       <c r="O89" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="P89" s="3">
         <v>-600</v>
       </c>
       <c r="Q89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R89" s="3">
         <v>-400</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-700</v>
       </c>
       <c r="S89" s="3">
         <v>-700</v>
       </c>
       <c r="T89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-500</v>
       </c>
       <c r="Z89" s="3">
         <v>-500</v>
       </c>
       <c r="AA89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-700</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6668,8 +6888,8 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>4</v>
@@ -6680,11 +6900,14 @@
       <c r="AA91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6873,11 +7102,11 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -6897,34 +7126,37 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7515,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7681,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7442,75 +7693,78 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="3">
         <v>-100</v>
       </c>
       <c r="Z102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>
